--- a/Plannification_arduino.xlsx
+++ b/Plannification_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothé PANTANI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0AA002-36FA-46B5-9713-9A7623FF9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{136D5556-E232-4301-BA22-0FBC90B8A9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7228587-B1D0-4AE0-B585-7B34800E62A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7228587-B1D0-4AE0-B585-7B34800E62A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Semaine</t>
   </si>
@@ -66,16 +66,39 @@
   </si>
   <si>
     <t>Timothé</t>
+  </si>
+  <si>
+    <t>&lt;---</t>
+  </si>
+  <si>
+    <t>hypothese</t>
+  </si>
+  <si>
+    <t>réalité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -193,16 +216,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,14 +285,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -384,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,229 +615,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E37F2A-B5C1-4230-947F-AE4B73F33B0D}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="6"/>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="6"/>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="6"/>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="1"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="I23" s="6"/>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="2"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -768,4 +900,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AFA603BDE5941148B750F9AFCCA7066C" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a00f7f9978f35985ab08091794614d87">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ac855da-285e-4912-9783-ce7cd2bbe070" xmlns:ns4="6c1d11b6-630e-4f14-b9ff-da63a572c91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e9ad091777544dc58d249b0eed68e9f" ns3:_="" ns4:_="">
+    <xsd:import namespace="9ac855da-285e-4912-9783-ce7cd2bbe070"/>
+    <xsd:import namespace="6c1d11b6-630e-4f14-b9ff-da63a572c91e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9ac855da-285e-4912-9783-ce7cd2bbe070" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6c1d11b6-630e-4f14-b9ff-da63a572c91e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9ac855da-285e-4912-9783-ce7cd2bbe070" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAC2279-EC4B-4973-B930-D7A295F457BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ac855da-285e-4912-9783-ce7cd2bbe070"/>
+    <ds:schemaRef ds:uri="6c1d11b6-630e-4f14-b9ff-da63a572c91e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D35AF2A-70E4-49C5-8FDB-E97FC1353761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7266E2DA-F6FE-473F-8DD1-E938BB4001CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9ac855da-285e-4912-9783-ce7cd2bbe070"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6c1d11b6-630e-4f14-b9ff-da63a572c91e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>